--- a/2020/Requisition/June/28.06.2020 Requisition of Mugdho Corporation.xlsx
+++ b/2020/Requisition/June/28.06.2020 Requisition of Mugdho Corporation.xlsx
@@ -1084,7 +1084,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F110" sqref="F110"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
